--- a/migracion/Clientes.xlsx
+++ b/migracion/Clientes.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\DesarrolloWeb358\gestion-global\migracion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45583074-432B-4DC8-8684-D3295EA2C681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -64,26 +73,34 @@
     <t>corriente</t>
   </si>
   <si>
-    <t>suh6sd</t>
-  </si>
-  <si>
-    <t>kjkhsdjh76</t>
+    <t>e00pkYVc2SZESu3Kt4OB7xiEs6N2</t>
+  </si>
+  <si>
+    <t>iho8mBuxxNWCEWqtuN6ZCgwpeuw1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -92,36 +109,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -311,26 +336,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.5"/>
+    <col min="1" max="1" width="43.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" customWidth="1"/>
+    <col min="10" max="10" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -365,21 +396,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>9.01268833E8</v>
+        <v>901268833</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>9.01268833E8</v>
+        <v>901268833</v>
       </c>
       <c r="E2" s="1">
-        <v>12345.0</v>
+        <v>12345</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -393,14 +424,14 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/migracion/Clientes.xlsx
+++ b/migracion/Clientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\DesarrolloWeb358\gestion-global\migracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45583074-432B-4DC8-8684-D3295EA2C681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24F7578A-5AB3-4A3B-A7ED-04EE47C3C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="226">
   <si>
     <t>nombre</t>
   </si>
@@ -55,35 +55,656 @@
     <t>ejecutivoJuridico</t>
   </si>
   <si>
-    <t>AGRUPACIÓN FLORESTA SAN RAFAEL - P.H.</t>
-  </si>
-  <si>
-    <t>florestasanrafaelzipaquira@gmail.com</t>
-  </si>
-  <si>
-    <t>calle 14</t>
-  </si>
-  <si>
-    <t>occidente</t>
-  </si>
-  <si>
-    <t>234234Hs</t>
-  </si>
-  <si>
-    <t>corriente</t>
-  </si>
-  <si>
-    <t>e00pkYVc2SZESu3Kt4OB7xiEs6N2</t>
-  </si>
-  <si>
-    <t>iho8mBuxxNWCEWqtuN6ZCgwpeuw1</t>
+    <t>HUHzGX9VxEYAd0yDggGr5FLqlHi1</t>
+  </si>
+  <si>
+    <t>ZdHbDZk1iAfs537M8kSEwls6b8K2</t>
+  </si>
+  <si>
+    <t>carterajordan2021@gmail.com</t>
+  </si>
+  <si>
+    <t>alborada.cr@gmail.com</t>
+  </si>
+  <si>
+    <t>agrupacionsauces@hotmail.com</t>
+  </si>
+  <si>
+    <t>alamedas1suba@gmail.com</t>
+  </si>
+  <si>
+    <t>alamedasanjose5@gmail.com</t>
+  </si>
+  <si>
+    <t>losbuganvilescarapi@hotmail.com</t>
+  </si>
+  <si>
+    <t>agrupacionbarichara.ph@gmail.com</t>
+  </si>
+  <si>
+    <t>admon.bilbaoreal@hotmail.com</t>
+  </si>
+  <si>
+    <t>info@bonavistaetapa1.com</t>
+  </si>
+  <si>
+    <t>bochicacompartirvi@gmail.com</t>
+  </si>
+  <si>
+    <t>vizcayacastillareservado@gmail.com</t>
+  </si>
+  <si>
+    <t>admon3031@gmail.com</t>
+  </si>
+  <si>
+    <t>celtacampestreph@gmail.com</t>
+  </si>
+  <si>
+    <t>ACACIA</t>
+  </si>
+  <si>
+    <t>acaciaagrupacion@gmail.com</t>
+  </si>
+  <si>
+    <t>CALLE 34 No.38SUR -161 SOACHA</t>
+  </si>
+  <si>
+    <t>ALAMEDA  I DE SUBA</t>
+  </si>
+  <si>
+    <t>9057058 -9166000</t>
+  </si>
+  <si>
+    <t>CALLE 131C 126-82</t>
+  </si>
+  <si>
+    <t>ALAMEDA SAN JOSE V</t>
+  </si>
+  <si>
+    <t>CARRERA 88C 45A-66 SUR</t>
+  </si>
+  <si>
+    <t>ALANDRA</t>
+  </si>
+  <si>
+    <t>admonalandracr@hotmail.com</t>
+  </si>
+  <si>
+    <t>CALLE 12C 71C-61</t>
+  </si>
+  <si>
+    <t>ALBORADA</t>
+  </si>
+  <si>
+    <t>7347857-3132484525</t>
+  </si>
+  <si>
+    <t>CALLE 13A 83-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALHAMBRA </t>
+  </si>
+  <si>
+    <t>CONJUNTOALHAMBRACASAS@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV CALLE 56 A SUR 24 C06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALMENDROS  </t>
+  </si>
+  <si>
+    <t>ALMENDROSDENUEVACASTILLA@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>6964491-3163512408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 7 SUR # 90 64 </t>
+  </si>
+  <si>
+    <t>ALSACIA RESERVADO 3</t>
+  </si>
+  <si>
+    <t>alsaciareservado3.com</t>
+  </si>
+  <si>
+    <t>CALLE 12B 71D - 40</t>
+  </si>
+  <si>
+    <t>ALSACIA REAL</t>
+  </si>
+  <si>
+    <t>alsaciareal@gmail.com</t>
+  </si>
+  <si>
+    <t>CALLE 12 A 71B-41</t>
+  </si>
+  <si>
+    <t>AMERICAS 68 MZ 52</t>
+  </si>
+  <si>
+    <t>CR.AMERICAS68@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>7049799-3142445838</t>
+  </si>
+  <si>
+    <t>AVE CARRERA 68 # 1 A 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARBOLEDA SAN GABRIEL </t>
+  </si>
+  <si>
+    <t>ARBOLEDASANGABRIEL@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>3589821-3153356442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 3 SUR # 70 81 </t>
+  </si>
+  <si>
+    <t>ARBOLEDA DEL JORDAN</t>
+  </si>
+  <si>
+    <t>3048748 - 3142820962</t>
+  </si>
+  <si>
+    <t>CALLE 20C 106 - 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARBORADA DE COTA </t>
+  </si>
+  <si>
+    <t>CONJUNTOARBORADADECOTA@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>3112906725-3186495063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIANTE COTA KM 1.9 FINCA </t>
+  </si>
+  <si>
+    <t>ARRAYANES DE SAUZALITO</t>
+  </si>
+  <si>
+    <t>arrayanesdesauzalito2020@gmail.com</t>
+  </si>
+  <si>
+    <t>CARRERA 69D 24-15</t>
+  </si>
+  <si>
+    <t>ARRAYANES DE SUBA</t>
+  </si>
+  <si>
+    <t>carrayanessuba@gmail.com</t>
+  </si>
+  <si>
+    <t>CARRERA 115 153-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATALANTA </t>
+  </si>
+  <si>
+    <t>ATALANTA1271@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>4113919-3125125253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE12 C # 71 C 31 </t>
+  </si>
+  <si>
+    <t>BALCONES DE SEGOVIA</t>
+  </si>
+  <si>
+    <t>balconessegovia@gmail.com</t>
+  </si>
+  <si>
+    <t>CARRERA 59A 136-39</t>
+  </si>
+  <si>
+    <t>BARICHARA</t>
+  </si>
+  <si>
+    <t>CARRERA 1 30-78 SUR SOACHA</t>
+  </si>
+  <si>
+    <t>BILBAO REAL</t>
+  </si>
+  <si>
+    <t>3182909644 - 3183271377</t>
+  </si>
+  <si>
+    <t>DIAGONAL 82G 73A - 61</t>
+  </si>
+  <si>
+    <t>BOCHICA VI</t>
+  </si>
+  <si>
+    <t>DIAGONAL 86A 102-50</t>
+  </si>
+  <si>
+    <t>BONAVISTA</t>
+  </si>
+  <si>
+    <t>CALLE 63 SUR 70D-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOSQUES DE KENNEDY </t>
+  </si>
+  <si>
+    <t>BOSQUESDEKENNEDY2019@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>3041026441-3123976697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA 78 K # 40 29 SUR </t>
+  </si>
+  <si>
+    <t>CAMINO DE LOS ANDES</t>
+  </si>
+  <si>
+    <t>admoncaminodelosandes@gmail.com</t>
+  </si>
+  <si>
+    <t>CALLE 31 SUR 9C -51 ESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMINOS 1 Y 2 </t>
+  </si>
+  <si>
+    <t>CAMINO1HOGARESSOACHA@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>CALLE 1 # 19 B-94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARABELAS </t>
+  </si>
+  <si>
+    <t>ADMONCARABELACENTRAL@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA 40 C # 9 21 SUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARIMAGUA </t>
+  </si>
+  <si>
+    <t>LUZTANGARIFEC@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 39 B SUR # 72 J 45 </t>
+  </si>
+  <si>
+    <t>CARIMAGUA 127</t>
+  </si>
+  <si>
+    <t>agcarimagua127@hotmail.com</t>
+  </si>
+  <si>
+    <t>2564695 - 3147300025</t>
+  </si>
+  <si>
+    <t>CARRERA 72 39-64 SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASA LINDA 8 </t>
+  </si>
+  <si>
+    <t>CONJUNTOCASALINDA8@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>CRA 6 A  ESTE No 30-77</t>
+  </si>
+  <si>
+    <t>CASABLANCA 30 - 31</t>
+  </si>
+  <si>
+    <t>CARRERA 79 47B-16 SUR</t>
+  </si>
+  <si>
+    <t>CASABLANCA 32</t>
+  </si>
+  <si>
+    <t>cb32ph@gmail.com</t>
+  </si>
+  <si>
+    <t>9370834 - 3138909661</t>
+  </si>
+  <si>
+    <t>CARRERA 79 F 46-16 SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASAS DE SANTA FE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRA 36 A # 54 A 27 SUR </t>
+  </si>
+  <si>
+    <t>CASTILLA DE ORO</t>
+  </si>
+  <si>
+    <t>conjuntocastilladeoro@gmail.com</t>
+  </si>
+  <si>
+    <t>CALLE 127C 5-28</t>
+  </si>
+  <si>
+    <t>CASTILLA REAL</t>
+  </si>
+  <si>
+    <t>castillarealetapa1@gmail.com</t>
+  </si>
+  <si>
+    <t>CALLE 10 79-15</t>
+  </si>
+  <si>
+    <t>CASTILLA OCCIDENTAL</t>
+  </si>
+  <si>
+    <t>castillaoccidental@outlook.com</t>
+  </si>
+  <si>
+    <t>4484787 - 3002011024</t>
+  </si>
+  <si>
+    <t>CARRERA 82A 6B-30</t>
+  </si>
+  <si>
+    <t>CELTA CAMPESTRE</t>
+  </si>
+  <si>
+    <t>CALLE 10 10-60 FUNZA</t>
+  </si>
+  <si>
+    <t>CENTRO CIAL CIUDAD MONTES</t>
+  </si>
+  <si>
+    <t>cciudadmontes@hotmail.com</t>
+  </si>
+  <si>
+    <t>2027145 - 3115836923</t>
+  </si>
+  <si>
+    <t>CALLE 11 SUR 31-39</t>
+  </si>
+  <si>
+    <t>CIUDAD TINTAL MZ 5 LOTE 3</t>
+  </si>
+  <si>
+    <t>conjuntociudadtintalsm5sl3@yahoo.com</t>
+  </si>
+  <si>
+    <t>CALLE 8A 92-71</t>
+  </si>
+  <si>
+    <t>COLINA CLUB</t>
+  </si>
+  <si>
+    <t>colinaclube1@gmail.com</t>
+  </si>
+  <si>
+    <t>8015423 - 3214270585</t>
+  </si>
+  <si>
+    <t>CARRERA 62  165A - 88</t>
+  </si>
+  <si>
+    <t>CONDOMINIOS III</t>
+  </si>
+  <si>
+    <t>agrupacionloscondominios3@gmail.com</t>
+  </si>
+  <si>
+    <t>CARRERA 95 34-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUMBRES DE SAN MATEO </t>
+  </si>
+  <si>
+    <t>CUMBRESDESANMATERO@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA 1 ESTE # 32 B 32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIFICIO SEÑORIAL </t>
+  </si>
+  <si>
+    <t>EDIFICIOSENORIALPH@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>6167669-3103103829</t>
+  </si>
+  <si>
+    <t>CRA 11 93 A 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAYUELOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPRO.HAYUELOSDELASABANA@HOTMAIL.COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVENIDA CARREAR 81 B # 17 90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORIZO DE LA CALLEJA </t>
+  </si>
+  <si>
+    <t>NELSONR555@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 128 B #18 79 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JARDINES DE CASTILLA 4 </t>
+  </si>
+  <si>
+    <t>JARDINESDECASTILLAETAPA4@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>4026812-3194135071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRA 81 B # 6 B 85 </t>
+  </si>
+  <si>
+    <t>LA CUMABRE</t>
+  </si>
+  <si>
+    <t>ADMONLACUMABRE2014@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>7559910-3153356442</t>
+  </si>
+  <si>
+    <t>CARRERA 79 # 19 A 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA FORTUNA I </t>
+  </si>
+  <si>
+    <t>LAFORTUNA1CONJUNTORESIDENCIAL@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>5166552 3124470504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 4 C # 14 - 16 </t>
+  </si>
+  <si>
+    <t>LOS SAUCES</t>
+  </si>
+  <si>
+    <t>CALLE 80A 111C-35</t>
+  </si>
+  <si>
+    <t>LOS BUGANVILES</t>
+  </si>
+  <si>
+    <t>CARMEN DE APICALA  BARRIO SAN JUAN LOZANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OASIS DE SAN MATEO </t>
+  </si>
+  <si>
+    <t>OASISETAPA3Y4@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>CALLE 33 # 7 E-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAZA DE LAS AMERICAS </t>
+  </si>
+  <si>
+    <t>CONJUNTORESIDENCIALPLAZAETAPA2@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>4961598-3125125253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRA 70 B # 3 31 SUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTAL DEL BOSQUE </t>
+  </si>
+  <si>
+    <t>CONJUNTORESIDENCIALPORTALDELBO@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>7512832-3144342747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 183 # 16 71 </t>
+  </si>
+  <si>
+    <t>PORVENIR RESERVADO 1</t>
+  </si>
+  <si>
+    <t>PORVENIRRESERVADO1@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 50 SUR # 98 B 67 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRADOS DE KENNEDY </t>
+  </si>
+  <si>
+    <t>CONJUNTOPRADOSDEKENNEDY@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA 78 M # 40 B 60 </t>
+  </si>
+  <si>
+    <t>RESERVA DE SAN AGUSTIN II</t>
+  </si>
+  <si>
+    <t>sanagustin2ph@gmail.com</t>
+  </si>
+  <si>
+    <t>CALLE 10B 88A-17</t>
+  </si>
+  <si>
+    <t>SAN LORENZO DE CASTILLA</t>
+  </si>
+  <si>
+    <t>crsanlorenzodecastilla@gmail.com</t>
+  </si>
+  <si>
+    <t>3565945 - 3102101325</t>
+  </si>
+  <si>
+    <t>CARRERA 88D 6D-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA CATALINA </t>
+  </si>
+  <si>
+    <t>SANTACATALINAPH@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 31 SUR # 23 A 78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAUCES II </t>
+  </si>
+  <si>
+    <t>C.RSAUCE2@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>CALLE 34 A # 38 - 237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERRAGRANDE 4 </t>
+  </si>
+  <si>
+    <t>TERRAGRANDE4ETAPA4@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>7117732-3222246061</t>
+  </si>
+  <si>
+    <t>CARRERA 6 A #38-88</t>
+  </si>
+  <si>
+    <t>TIMIZA CELULA J</t>
+  </si>
+  <si>
+    <t>unidacelulaj@outlook.com</t>
+  </si>
+  <si>
+    <t>CARRERA 72Q 41C -71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRE 40 </t>
+  </si>
+  <si>
+    <t>CONJUNTOTORRE40@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>CARRERA 72 K # 39 A 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TULIPANES </t>
+  </si>
+  <si>
+    <t>AGRUPACIONTULIPANES2@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>3885594-3006828882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA 115 A # 89 B 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUPARRO 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRPARQUETUPARRO1@GMAIL.COM </t>
+  </si>
+  <si>
+    <t>4598802 -3123976697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 77 SUR # 81 H -20 </t>
+  </si>
+  <si>
+    <t>VIZCAYA CASTILLA RESERVADO</t>
+  </si>
+  <si>
+    <t>CARRERA 8A 90A-67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -103,16 +724,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,16 +761,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -346,18 +1011,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13:K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="10" max="10" width="32.6328125" customWidth="1"/>
     <col min="11" max="11" width="31.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -397,41 +1063,1699 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
-        <v>901268833</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>901268833</v>
-      </c>
-      <c r="E2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4">
+        <v>900687420</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4">
+        <v>900687420</v>
+      </c>
+      <c r="E2" s="4">
+        <v>9016929</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4">
+        <v>901001861</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>901001861</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4">
+        <v>900123743</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>900123743</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3188754110</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4">
+        <v>900003261</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4">
+        <v>900003261</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <v>900377532</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <v>900377532</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4">
+        <v>900098431</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4">
+        <v>900098431</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8109546</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4">
+        <v>900190116</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4">
+        <v>900190116</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4">
+        <v>900506434</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="4">
+        <v>900506434</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="4">
+        <v>900155802</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4">
+        <v>900155802</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4586636</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4">
+        <v>900715424</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4">
+        <v>900715424</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4">
+        <v>830121765</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4">
+        <v>830121765</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4">
+        <v>830125131</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D13" s="4">
+        <v>830125131</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="4">
+        <v>900521142</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4">
+        <v>900521142</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4">
+        <v>800142993</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="4">
+        <v>800142993</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="4">
+        <v>830074497</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="4">
+        <v>830074497</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3004714483</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="4">
+        <v>900122253</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="4">
+        <v>900122253</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="4">
+        <v>830057747</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="4">
+        <v>830057747</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2713526</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="4">
+        <v>900658412</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4">
+        <v>900658412</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7329000</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="4">
+        <v>900281120</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4">
+        <v>900281120</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="4">
+        <v>830096405</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4">
+        <v>830096405</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3108042522</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="4">
+        <v>900539381</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4">
+        <v>900539381</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3213569331</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="4">
+        <v>860040335</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="4">
+        <v>860040335</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="4">
+        <v>901507077</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="4">
+        <v>901507077</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3213971125</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="4">
+        <v>901132823</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="4">
+        <v>901132823</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3012353375</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="4">
+        <v>800193176</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="4">
+        <v>800193176</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3202138789</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="4">
+        <v>830075332</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="4">
+        <v>830075332</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2735290</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="4">
+        <v>800206093</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="4">
+        <v>800206093</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="4">
+        <v>832005276</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="4">
+        <v>832005276</v>
+      </c>
+      <c r="E29" s="4">
+        <v>7129660</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="4">
+        <v>800234376</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="4">
+        <v>800234376</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3133655710</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="4">
+        <v>860404520</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="4">
+        <v>860404520</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="4">
+        <v>830113468</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4">
+        <v>830113468</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3103469205</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="4">
+        <v>800177027</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="4">
+        <v>800177027</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3102589941</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="4">
+        <v>800237079</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="4">
+        <v>800237079</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3099055</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="4">
+        <v>830119707</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="4">
+        <v>830119707</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="4">
+        <v>900473941</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4">
+        <v>900473941</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3118479501</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="4">
+        <v>860450841</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="4">
+        <v>860450841</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="4">
+        <v>900060600</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="4">
+        <v>900060600</v>
+      </c>
+      <c r="E38" s="4">
+        <v>7027985</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="4">
+        <v>900404487</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="4">
+        <v>900404487</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="4">
+        <v>900182882</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="4">
+        <v>900182882</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="4">
+        <v>830002298</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="4">
+        <v>830002298</v>
+      </c>
+      <c r="E41" s="4">
+        <v>9017809</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="4">
+        <v>800184481</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="4">
+        <v>800184481</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="4">
+        <v>900334680</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="4">
+        <v>900334680</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3016593243</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="4">
+        <v>830071809</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="4">
+        <v>830071809</v>
+      </c>
+      <c r="E44" s="4">
+        <v>3144432747</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="4">
+        <v>830133314</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="4">
+        <v>830133314</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="4">
+        <v>900719501</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="4">
+        <v>900719501</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="4">
+        <v>900748799</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="4">
+        <v>900748799</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="4">
+        <v>800198168</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="D48" s="4">
+        <v>800198168</v>
+      </c>
+      <c r="E48" s="4">
+        <v>4332389</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="4">
+        <v>809011754</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="D49" s="4">
+        <v>809011754</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3213010522</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="4">
+        <v>900323880</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="4">
+        <v>900323880</v>
+      </c>
+      <c r="E50" s="4">
+        <v>9029859</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="4">
+        <v>830015808</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="4">
+        <v>830015808</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="4">
+        <v>830116263</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="4">
+        <v>830116263</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="4">
+        <v>900247733</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="4">
+        <v>900247733</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3134727411</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="4">
+        <v>830035457</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="4">
+        <v>830035457</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3106491142</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" s="4">
+        <v>900546980</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="4">
+        <v>900546980</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3244017189</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="4">
+        <v>900271099</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="4">
+        <v>900271099</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="4">
+        <v>830047278</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="4">
+        <v>830047278</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3167441586</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="4">
+        <v>830121765</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" s="4">
+        <v>830121765</v>
+      </c>
+      <c r="E58" s="4">
+        <v>9026453</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="4">
+        <v>900489785</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="4">
+        <v>900489785</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="4">
+        <v>860100007</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="4">
+        <v>860100007</v>
+      </c>
+      <c r="E60" s="4">
+        <v>3102141232</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="4">
+        <v>900545280</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="4">
+        <v>900545280</v>
+      </c>
+      <c r="E61" s="4">
+        <v>3193276909</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="4">
+        <v>900061167</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="4">
+        <v>900061167</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="4">
+        <v>901151343</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="4">
+        <v>901151343</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="4">
+        <v>901509798</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="4">
+        <v>901509798</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3213589399</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{6D947E5B-DE5E-4FA4-8321-FC3F65F61E6C}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{FD02FFBB-F7B4-4EC5-AFEA-27D6D99B535A}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{3257E3AD-0A70-4A42-A7A1-20C6CED1A80F}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{D22A9016-7E9C-4F24-8B63-96E048800CB3}"/>
+    <hyperlink ref="C9" r:id="rId5" display="http://alsaciareservado3.com/" xr:uid="{83A46CB2-A2FC-40D3-B945-F8779963CF34}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{EA0F2590-A05F-47CC-8B4D-5287C9E64278}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{8BDD8CBB-E9CA-4683-8500-1347D364D9B6}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{B8DE2B28-E757-4869-89EF-CF095F0993B2}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{EFC60B1C-AB3E-4104-97E1-516B206B4A9B}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{30AC2DCF-BD40-4F71-B51E-60777EE86F10}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{99D70A63-8500-4E3F-BF0E-BA869FE8722B}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{446EF1D3-699C-44D3-A01D-0D10D80C3425}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{334FBDDF-BC2E-498E-AF30-1587330E6D50}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{FF9E3E85-61DD-4A22-81FA-622EF3B4B4D6}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{CC942BDD-AAC6-4CF7-B903-18328A955422}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{A72752C4-76B0-4C27-BD0E-F1BBAD533A11}"/>
+    <hyperlink ref="C21" r:id="rId17" xr:uid="{FFF39AB5-80CE-40A3-8365-67C259614A54}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{713A10CB-AF8E-40C6-9AC1-26855D055AA4}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{F4202071-EC92-4C74-A8E9-7179668B1D17}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{3076C99B-0AAE-4EF7-B30E-2100AED39B96}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{EFC30E4D-207E-4E3D-9FBE-0F507D481D47}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{A4BD5659-6E51-4CF2-9C33-220A218AD7DB}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{7FF42EF4-9F9B-4301-8D9B-F71D8D2285A7}"/>
+    <hyperlink ref="C28" r:id="rId24" xr:uid="{52566E5E-5F47-4AB7-9FE6-BA1844652ADE}"/>
+    <hyperlink ref="C29" r:id="rId25" xr:uid="{2A680E4A-F8C3-4C95-A8C5-21E0EF392E07}"/>
+    <hyperlink ref="C41" r:id="rId26" xr:uid="{CB5F1EDC-858C-4FC0-8F29-C8541ECDF06F}"/>
+    <hyperlink ref="C30" r:id="rId27" xr:uid="{FE4D7EFF-3559-4AC4-8620-8C63D23E8533}"/>
+    <hyperlink ref="C36" r:id="rId28" xr:uid="{69597466-66F4-4D85-956D-5F16CDDF0BC6}"/>
+    <hyperlink ref="C31" r:id="rId29" xr:uid="{D4C76556-2248-477F-AF7E-57D9E791F60B}"/>
+    <hyperlink ref="C35" r:id="rId30" xr:uid="{DBA2D4D1-9890-4109-9BC3-4E25B53C85D0}"/>
+    <hyperlink ref="C33" r:id="rId31" xr:uid="{FCBBDCAC-0A99-4BBE-98E8-76AD32E7DD23}"/>
+    <hyperlink ref="C34" r:id="rId32" xr:uid="{FBA1189B-9391-47E2-BED5-4DCA546A8EE6}"/>
+    <hyperlink ref="C37" r:id="rId33" xr:uid="{A89B20CC-FB49-475F-AD17-CE000204C074}"/>
+    <hyperlink ref="C38" r:id="rId34" xr:uid="{D8E1EA1B-48D3-44B0-9F3A-E0068C44F3DE}"/>
+    <hyperlink ref="C39" r:id="rId35" xr:uid="{98E79CAB-904D-49D6-9994-ED149F650586}"/>
+    <hyperlink ref="C40" r:id="rId36" xr:uid="{C5F769F4-DD6E-4C1F-8A34-1CAEF9946017}"/>
+    <hyperlink ref="C42" r:id="rId37" xr:uid="{D95CE766-CF74-407D-B8C9-CC5D1F4CCEF7}"/>
+    <hyperlink ref="C44" r:id="rId38" xr:uid="{54855ED2-5FBF-4ADF-A032-F3B2D53D0070}"/>
+    <hyperlink ref="C43" r:id="rId39" xr:uid="{41CBDCAE-8589-481B-A5D8-7E678752F961}"/>
+    <hyperlink ref="C45" r:id="rId40" xr:uid="{2ECF1B0F-F3FE-49CB-8431-2D7B130B1FCF}"/>
+    <hyperlink ref="C47" r:id="rId41" xr:uid="{F6ABA756-2EA0-43CB-A1E8-4943F1AF4502}"/>
+    <hyperlink ref="C46" r:id="rId42" xr:uid="{D28B5082-B817-4954-99E5-8833A46A5714}"/>
+    <hyperlink ref="C48" r:id="rId43" xr:uid="{72CDB747-5200-48FA-816F-1C19585BB556}"/>
+    <hyperlink ref="C49" r:id="rId44" xr:uid="{88D399E5-674B-4FA9-B42E-07BAFB95BE9C}"/>
+    <hyperlink ref="C50" r:id="rId45" xr:uid="{DA990065-5180-46E2-9054-47031242FE06}"/>
+    <hyperlink ref="C51" r:id="rId46" xr:uid="{6E87A18A-4757-4983-ACFB-DC2F64A4EB35}"/>
+    <hyperlink ref="C52" r:id="rId47" xr:uid="{F31B9D7F-A041-4DA7-B836-B26B9E8BF42B}"/>
+    <hyperlink ref="C53" r:id="rId48" xr:uid="{7D617E52-2160-455F-B208-A1CB21E88512}"/>
+    <hyperlink ref="C54" r:id="rId49" xr:uid="{DF413174-D873-47FB-8248-C436E6228DCF}"/>
+    <hyperlink ref="C55" r:id="rId50" xr:uid="{EBAAA541-DE16-42F3-9D3A-6A4FA77FFF19}"/>
+    <hyperlink ref="C56" r:id="rId51" xr:uid="{E066C11D-3D5C-496B-8705-381B77D00636}"/>
+    <hyperlink ref="C57" r:id="rId52" xr:uid="{CB9E4348-0F5C-482A-9276-1CAC8C2C81B9}"/>
+    <hyperlink ref="C58" r:id="rId53" xr:uid="{DF824FA0-9538-44C8-ADFF-48763F39E031}"/>
+    <hyperlink ref="C59" r:id="rId54" xr:uid="{6AEAD947-7D90-49C2-A876-AF8C2DB9CF2E}"/>
+    <hyperlink ref="C61" r:id="rId55" xr:uid="{340D6B9C-1B0F-4B34-AD59-A7BC5E301FF7}"/>
+    <hyperlink ref="C60" r:id="rId56" xr:uid="{00658293-BF48-438A-A8EF-6B0B3EB4C70D}"/>
+    <hyperlink ref="C62" r:id="rId57" xr:uid="{32C21328-C836-4297-8F60-54564269CCC5}"/>
+    <hyperlink ref="C63" r:id="rId58" xr:uid="{2EF58321-0AC4-4767-A196-44E861CE3A2A}"/>
+    <hyperlink ref="C64" r:id="rId59" xr:uid="{42BE1F67-FC14-40CA-A69C-70E61CBB61F5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/migracion/Clientes.xlsx
+++ b/migracion/Clientes.xlsx
@@ -1,41 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\DesarrolloWeb358\gestion-global\migracion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C99881-C2D2-467C-A853-F002BA6A6496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>nit</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>numero_cuenta</t>
+  </si>
+  <si>
+    <t>tipo_cuenta</t>
+  </si>
+  <si>
+    <t>ejecutivoPrejuridico</t>
+  </si>
+  <si>
+    <t>ejecutivoJuridico</t>
+  </si>
+  <si>
+    <t>ejecutivoDependiente</t>
+  </si>
+  <si>
+    <t>abogado</t>
+  </si>
+  <si>
+    <t>ejecutivoPrejuridicoUID</t>
+  </si>
+  <si>
+    <t>ejecutivoJuridicoUID</t>
+  </si>
+  <si>
+    <t>ejecutivoDependienteUID</t>
+  </si>
+  <si>
+    <t>abogadoUID</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>BOCHICA VI</t>
+  </si>
+  <si>
+    <t>bochicacompartirvi@gmail.com</t>
+  </si>
+  <si>
+    <t>DIAGONAL 86A 102-50</t>
+  </si>
+  <si>
+    <t>Iveth</t>
+  </si>
+  <si>
+    <t>Jeimmy</t>
+  </si>
+  <si>
+    <t>Nicoll</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>e00pkYVc2SZESu3Kt4OB7xiEs6N2</t>
+  </si>
+  <si>
+    <t>AM5OrR7UlQgUNPDMkmFDCSNUsv43</t>
+  </si>
+  <si>
+    <t>FWn2ELTvlSSDxnrvoAkBGewzBr43</t>
+  </si>
+  <si>
+    <t>ZdHbDZk1iAfs537M8kSEwls6b8K2</t>
+  </si>
+  <si>
+    <t>3p0aNdZwKkORojcj8qjgX3uYMiD3</t>
+  </si>
+  <si>
+    <t>LA CUMBRE</t>
+  </si>
+  <si>
+    <t>ADMONLACUMABRE2014@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>7559910-3153356442</t>
+  </si>
+  <si>
+    <t>CARRERA 79 # 19 A 56</t>
+  </si>
+  <si>
+    <t>AqdBTjxOa6URiLSeJq41NkwMuW32</t>
+  </si>
+  <si>
+    <t>SAUCES II</t>
+  </si>
+  <si>
+    <t>C.RSAUCE2@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>CALLE 34 A # 38 - 237</t>
+  </si>
+  <si>
+    <t>g8M8DXkXZzd0cEzKipXUDuaLNRw1</t>
+  </si>
+  <si>
+    <t>FALTA_NIT</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +182,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,192 +521,483 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>nombre</v>
-      </c>
-      <c r="B1" t="str">
-        <v>nit</v>
-      </c>
-      <c r="C1" t="str">
-        <v>correo</v>
-      </c>
-      <c r="D1" t="str">
-        <v>contraseña</v>
-      </c>
-      <c r="E1" t="str">
-        <v>telefono</v>
-      </c>
-      <c r="F1" t="str">
-        <v>direccion</v>
-      </c>
-      <c r="G1" t="str">
-        <v>banco</v>
-      </c>
-      <c r="H1" t="str">
-        <v>numero_cuenta</v>
-      </c>
-      <c r="I1" t="str">
-        <v>tipo_cuenta</v>
-      </c>
-      <c r="J1" t="str">
-        <v>ejecutivoPrejuridico</v>
-      </c>
-      <c r="K1" t="str">
-        <v>ejecutivoJuridico</v>
-      </c>
-      <c r="L1" t="str">
-        <v>ejecutivoDependiente</v>
-      </c>
-      <c r="M1" t="str">
-        <v>abogado</v>
-      </c>
-      <c r="N1" t="str">
-        <v>ejecutivoPrejuridicoUID</v>
-      </c>
-      <c r="O1" t="str">
-        <v>ejecutivoJuridicoUID</v>
-      </c>
-      <c r="P1" t="str">
-        <v>ejecutivoDependienteUID</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>abogadoUID</v>
-      </c>
-      <c r="R1" t="str">
-        <v>UID</v>
-      </c>
-      <c r="S1" t="str">
-        <v>ERROR</v>
+    <row r="1" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>SANTA INES</v>
+    <row r="2" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>830056841</v>
-      </c>
-      <c r="C2" t="str">
-        <v>santainesph@gmail.com</v>
+        <v>830096405</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>830056841</v>
+        <v>830096405</v>
       </c>
       <c r="E2">
-        <v>3102033157</v>
-      </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v>Iveth</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Jeimmy</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Nicoll</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Javier</v>
-      </c>
-      <c r="N2" t="str">
-        <v>e00pkYVc2SZESu3Kt4OB7xiEs6N2</v>
-      </c>
-      <c r="O2" t="str">
-        <v>AM5OrR7UlQgUNPDMkmFDCSNUsv43</v>
-      </c>
-      <c r="P2" t="str">
-        <v>FWn2ELTvlSSDxnrvoAkBGewzBr43</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>ZdHbDZk1iAfs537M8kSEwls6b8K2</v>
-      </c>
-      <c r="R2" t="str">
-        <v>zJBpSbGQNFfS2ZFa47QIxPV8XXb2</v>
-      </c>
-      <c r="S2" t="str">
-        <v/>
+        <v>3108042522</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v/>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <v/>
-      </c>
-      <c r="P3" t="str">
-        <v/>
-      </c>
-      <c r="Q3" t="str">
-        <v/>
-      </c>
-      <c r="R3" t="str">
-        <v/>
-      </c>
-      <c r="S3" t="str">
-        <v>FALTA_NIT</v>
+    <row r="3" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>900719591</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>900719591</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>900863645</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>900863645</v>
+      </c>
+      <c r="E4">
+        <v>9026453</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S3"/>
+    <ignoredError sqref="A1:AD5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/migracion/Clientes.xlsx
+++ b/migracion/Clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\DesarrolloWeb358\gestion-global\migracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6BBB7F-A898-435F-A699-DD8199FB58CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D10838F-2C6F-4379-845B-FC72E4F89B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>nombre</t>
   </si>
@@ -444,15 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,18 +499,30 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Q1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:U1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/migracion/Clientes.xlsx
+++ b/migracion/Clientes.xlsx
@@ -1,80 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\DesarrolloWeb358\gestion-global\migracion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D10838F-2C6F-4379-845B-FC72E4F89B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>nit</t>
-  </si>
-  <si>
-    <t>correo</t>
-  </si>
-  <si>
-    <t>contraseña</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>direccion</t>
-  </si>
-  <si>
-    <t>banco</t>
-  </si>
-  <si>
-    <t>numero_cuenta</t>
-  </si>
-  <si>
-    <t>tipo_cuenta</t>
-  </si>
-  <si>
-    <t>ejecutivoPrejuridico</t>
-  </si>
-  <si>
-    <t>ejecutivoJuridico</t>
-  </si>
-  <si>
-    <t>ejecutivoDependiente</t>
-  </si>
-  <si>
-    <t>abogado</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -443,86 +396,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>nombre</v>
+      </c>
+      <c r="B1" t="str">
+        <v>nit</v>
+      </c>
+      <c r="C1" t="str">
+        <v>correo</v>
+      </c>
+      <c r="D1" t="str">
+        <v>contraseña</v>
+      </c>
+      <c r="E1" t="str">
+        <v>telefono</v>
+      </c>
+      <c r="F1" t="str">
+        <v>direccion</v>
+      </c>
+      <c r="G1" t="str">
+        <v>banco</v>
+      </c>
+      <c r="H1" t="str">
+        <v>numero_cuenta</v>
+      </c>
+      <c r="I1" t="str">
+        <v>tipo_cuenta</v>
+      </c>
+      <c r="J1" t="str">
+        <v>ejecutivoPrejuridico</v>
+      </c>
+      <c r="K1" t="str">
+        <v>ejecutivoJuridico</v>
+      </c>
+      <c r="L1" t="str">
+        <v>ejecutivoDependiente</v>
+      </c>
+      <c r="M1" t="str">
+        <v>abogado</v>
+      </c>
+      <c r="N1" t="str">
+        <v>UID</v>
+      </c>
+      <c r="O1" t="str">
+        <v>ERROR</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>CONJUNTO RESIDENCIAL RESERVAS DEL MEDITERRANEO - P.H.</v>
+      </c>
+      <c r="B2">
+        <v>900784867</v>
+      </c>
+      <c r="C2" t="str">
+        <v>reservadelmediterraneo@gmail.com</v>
+      </c>
+      <c r="D2">
+        <v>900784867</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v>Iveth</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Iveth</v>
+      </c>
+      <c r="L2" t="str">
+        <v>No tiene</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Javier</v>
+      </c>
+      <c r="N2" t="str">
+        <v>7TNFZS8dgzev3pTMVwpRkfQOfxB3</v>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:U1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/migracion/Clientes.xlsx
+++ b/migracion/Clientes.xlsx
@@ -1,44 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\DesarrolloWeb358\gestion-global\migracion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FF69B-649F-4C3D-AECA-9C6358816167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>nit</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>numero_cuenta</t>
+  </si>
+  <si>
+    <t>tipo_cuenta</t>
+  </si>
+  <si>
+    <t>ejecutivoPrejuridico</t>
+  </si>
+  <si>
+    <t>ejecutivoJuridico</t>
+  </si>
+  <si>
+    <t>ejecutivoDependiente</t>
+  </si>
+  <si>
+    <t>abogado</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>EDIFICIO RESIDENCIAS LA CASTELLANA - P.H.</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>No tiene</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>90aUARGlIZOrm0aiVeGMJovUVGd2</t>
+  </si>
+  <si>
+    <t>mauruco009@gmail.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,17 +126,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,175 +472,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="3" max="3" width="36.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>nombre</v>
-      </c>
-      <c r="B1" t="str">
-        <v>nit</v>
-      </c>
-      <c r="C1" t="str">
-        <v>correo</v>
-      </c>
-      <c r="D1" t="str">
-        <v>contraseña</v>
-      </c>
-      <c r="E1" t="str">
-        <v>telefono</v>
-      </c>
-      <c r="F1" t="str">
-        <v>direccion</v>
-      </c>
-      <c r="G1" t="str">
-        <v>banco</v>
-      </c>
-      <c r="H1" t="str">
-        <v>numero_cuenta</v>
-      </c>
-      <c r="I1" t="str">
-        <v>tipo_cuenta</v>
-      </c>
-      <c r="J1" t="str">
-        <v>ejecutivoPrejuridico</v>
-      </c>
-      <c r="K1" t="str">
-        <v>ejecutivoJuridico</v>
-      </c>
-      <c r="L1" t="str">
-        <v>ejecutivoDependiente</v>
-      </c>
-      <c r="M1" t="str">
-        <v>abogado</v>
-      </c>
-      <c r="N1" t="str">
-        <v/>
-      </c>
-      <c r="O1" t="str">
-        <v/>
-      </c>
-      <c r="P1" t="str">
-        <v/>
-      </c>
-      <c r="Q1" t="str">
-        <v/>
-      </c>
-      <c r="R1" t="str">
-        <v/>
-      </c>
-      <c r="S1" t="str">
-        <v/>
-      </c>
-      <c r="T1" t="str">
-        <v/>
-      </c>
-      <c r="U1" t="str">
-        <v/>
-      </c>
-      <c r="V1" t="str">
-        <v/>
-      </c>
-      <c r="W1" t="str">
-        <v>UID</v>
-      </c>
-      <c r="X1" t="str">
-        <v>ERROR</v>
-      </c>
-      <c r="Y1" t="str">
-        <v/>
-      </c>
-      <c r="Z1" t="str">
-        <v/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>EDIFICIO RESIDENCIAS LA CASTELLANA - P.H.</v>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
         <v>900087000</v>
       </c>
-      <c r="C2" t="str">
-        <v>edificiocastellanaph@gmail.com</v>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D2">
         <v>900087000</v>
       </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v>Jesus</v>
-      </c>
-      <c r="K2" t="str">
-        <v>No tiene</v>
-      </c>
-      <c r="L2" t="str">
-        <v>No tiene</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Javier</v>
-      </c>
-      <c r="N2" t="str">
-        <v/>
-      </c>
-      <c r="O2" t="str">
-        <v/>
-      </c>
-      <c r="P2" t="str">
-        <v/>
-      </c>
-      <c r="Q2" t="str">
-        <v/>
-      </c>
-      <c r="R2" t="str">
-        <v/>
-      </c>
-      <c r="S2" t="str">
-        <v/>
-      </c>
-      <c r="T2" t="str">
-        <v/>
-      </c>
-      <c r="U2" t="str">
-        <v/>
-      </c>
-      <c r="V2" t="str">
-        <v/>
-      </c>
-      <c r="W2" t="str">
-        <v>90aUARGlIZOrm0aiVeGMJovUVGd2</v>
-      </c>
-      <c r="X2" t="str">
-        <v/>
-      </c>
-      <c r="Y2" t="str">
-        <v/>
-      </c>
-      <c r="Z2" t="str">
-        <v/>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{356D1A13-E562-40E9-88FF-2405B872F9D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z2"/>
+    <ignoredError sqref="A1:Z1 A2:B2 D2:Z2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/migracion/Clientes.xlsx
+++ b/migracion/Clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\DesarrolloWeb358\gestion-global\migracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FF69B-649F-4C3D-AECA-9C6358816167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC2C06-CE27-4080-8236-FAC589C8D696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>nombre</t>
   </si>
@@ -64,15 +64,6 @@
     <t/>
   </si>
   <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>EDIFICIO RESIDENCIAS LA CASTELLANA - P.H.</t>
-  </si>
-  <si>
     <t>Jesus</t>
   </si>
   <si>
@@ -82,10 +73,10 @@
     <t>Javier</t>
   </si>
   <si>
-    <t>90aUARGlIZOrm0aiVeGMJovUVGd2</t>
-  </si>
-  <si>
-    <t>mauruco009@gmail.com</t>
+    <t>CONJUNTO DE PRUEBA 1</t>
+  </si>
+  <si>
+    <t>santigarcia2321@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -473,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="T1" sqref="T1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -485,7 +476,7 @@
     <col min="3" max="3" width="36.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,65 +537,47 @@
       <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>111111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>111111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="X1" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>900087000</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2">
-        <v>900087000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
       <c r="N2" t="s">
         <v>13</v>
       </c>
@@ -624,34 +597,13 @@
         <v>13</v>
       </c>
       <c r="T2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{356D1A13-E562-40E9-88FF-2405B872F9D2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Z1 A2:B2 D2:Z2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:S1 E2:S2 T1 T2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/migracion/Clientes.xlsx
+++ b/migracion/Clientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\DesarrolloWeb358\gestion-global\migracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC2C06-CE27-4080-8236-FAC589C8D696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711E56A4-2914-4063-B34E-6FBF116D7AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>nombre</t>
   </si>
@@ -64,32 +64,171 @@
     <t/>
   </si>
   <si>
+    <t>AGRUPACION DE VIVIENDA LOS ROBLES - P.H.</t>
+  </si>
+  <si>
+    <t>agrupacionlosrobles2025@gmail.com</t>
+  </si>
+  <si>
+    <t>Nathaly P</t>
+  </si>
+  <si>
+    <t>laura</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>HLpR8m79wagEgKbtUMemjfYAnVG3</t>
+  </si>
+  <si>
+    <t>CONJUNTO RESIDENCIAL LOS ARRAYANES DE SUBA ETAPA I Y II -P.H.</t>
+  </si>
+  <si>
+    <t>crarrayanessuba@gmail.com</t>
+  </si>
+  <si>
+    <t>CARRERA 115 153-80</t>
+  </si>
+  <si>
+    <t>Iveth</t>
+  </si>
+  <si>
+    <t>No tiene</t>
+  </si>
+  <si>
+    <t>rZXaWDtMGSZ1coCIBcAI86MMHms1</t>
+  </si>
+  <si>
+    <t>CONJUNTO RESIDENCIAL ATALANTA ETAPA I - P.H.</t>
+  </si>
+  <si>
+    <t>atalantamicasa@gmail.com</t>
+  </si>
+  <si>
+    <t>4113919-3125125253</t>
+  </si>
+  <si>
+    <t>CALLE12 C # 71 C 31</t>
+  </si>
+  <si>
     <t>Jesus</t>
   </si>
   <si>
-    <t>No tiene</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>CONJUNTO DE PRUEBA 1</t>
-  </si>
-  <si>
-    <t>santigarcia2321@gmail.com</t>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>tDZpwcqcOyMCVGiECb3OH7CWSu43</t>
+  </si>
+  <si>
+    <t>CONJUNTO RESIDENCIAL BILBAO REAL - P.H.</t>
+  </si>
+  <si>
+    <t>admon.bilbaoreal@gmail.com</t>
+  </si>
+  <si>
+    <t>3182909644 - 3183271377</t>
+  </si>
+  <si>
+    <t>DIAGONAL 82G 73A - 61</t>
+  </si>
+  <si>
+    <t>LI2GgZa2jnU0zjfY7hqlLW0XRDK2</t>
+  </si>
+  <si>
+    <t>CONJUNTO RESIDENCIAL BOSQUES DE KENNEDY - P.H.</t>
+  </si>
+  <si>
+    <t>bosqueskennedy2024@gmail.com</t>
+  </si>
+  <si>
+    <t>3041026441-3123976697</t>
+  </si>
+  <si>
+    <t>CARRERA 78 K # 40 29 SUR</t>
+  </si>
+  <si>
+    <t>equfFlZBHaWVSPfDkdhrvdch0N92</t>
+  </si>
+  <si>
+    <t>CONJUNTO RESIDENCIAL CARABELAS CENTRAL - P.H.</t>
+  </si>
+  <si>
+    <t>admoncarabelascentral@gmail.com</t>
+  </si>
+  <si>
+    <t>CARRERA 40 C # 9 21 SUR</t>
+  </si>
+  <si>
+    <t>maTMi2632eVEJL3flzV7iaUJdZE2</t>
+  </si>
+  <si>
+    <t>CENTRO COMERCIAL CIUDAD MONTES - P.H.</t>
+  </si>
+  <si>
+    <t>ccciudadmontes@hotmail.com</t>
+  </si>
+  <si>
+    <t>2027145 - 3115836923</t>
+  </si>
+  <si>
+    <t>CALLE 11 SUR 31-39</t>
+  </si>
+  <si>
+    <t>sara</t>
+  </si>
+  <si>
+    <t>ecnQOGZORQfRxEQZ6HwzFzoTvdg1</t>
+  </si>
+  <si>
+    <t>CONJUNTO RESIDENCIAL PALO ROSA - P.H.</t>
+  </si>
+  <si>
+    <t>palorosaconjunto@gmail.com</t>
+  </si>
+  <si>
+    <t>9029213-3213648007</t>
+  </si>
+  <si>
+    <t>CRA 1 30-78 SUR</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>9Cdb2JGBTQRFPPxBjhdqLH0ljaz1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -99,16 +238,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Google Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5E5E5E"/>
+      <name val="Google Sans"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,14 +283,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -464,19 +687,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="3" max="3" width="36.08203125" customWidth="1"/>
+    <col min="3" max="3" width="63.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,72 +761,411 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" ht="62.5" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5">
+        <v>830018673</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>830018673</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>111111</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>111111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="62.5" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5">
+        <v>830074497</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>830074497</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3004714483</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" ht="62.5" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5">
+        <v>900122253</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>900122253</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" ht="62.5" thickBot="1">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5">
+        <v>900281120</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2">
+        <v>900281120</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="62.5" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5">
+        <v>860040335</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2">
+        <v>860040335</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="47" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5">
+        <v>800193176</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2">
+        <v>800193176</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3202138789</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="62.5" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5">
+        <v>860450841</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2">
+        <v>860450841</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="47" thickBot="1">
+      <c r="A9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="13">
+        <v>900643491</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2">
+        <v>900643491</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" t="s">
-        <v>13</v>
-      </c>
+      <c r="L9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="mailto:atalantamicasa@gmail.com" xr:uid="{3D5F424F-5DEE-4738-ABCD-9E0DDA23AE07}"/>
+    <hyperlink ref="C7" r:id="rId2" display="mailto:admoncarabelascentral@gmail.com" xr:uid="{C79A88E0-B1B6-4D26-A7D9-A072BD4A2E57}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:S1 E2:S2 T1 T2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:S1 T1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>